--- a/teaching/traditional_assets/database/data/united_states/united_states_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/united_states/united_states_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.016425</v>
+        <v>-0.003405</v>
       </c>
       <c r="E2">
-        <v>0.09625</v>
+        <v>-0.0101</v>
       </c>
       <c r="F2">
-        <v>0.09</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.001550856381308352</v>
+        <v>-0.001111273394624937</v>
       </c>
       <c r="J2">
-        <v>-0.001250674650376996</v>
+        <v>-0.0009316925987358171</v>
       </c>
       <c r="K2">
-        <v>111467.57</v>
+        <v>65105.86</v>
       </c>
       <c r="L2">
-        <v>0.306335627167646</v>
+        <v>0.2097560991325707</v>
       </c>
       <c r="M2">
-        <v>124598.325</v>
+        <v>81835.246</v>
       </c>
       <c r="N2">
-        <v>0.1001793242049928</v>
+        <v>0.08410688896402947</v>
       </c>
       <c r="O2">
-        <v>1.117798880876294</v>
+        <v>1.25695668561939</v>
       </c>
       <c r="P2">
-        <v>30543.325</v>
+        <v>30567.246</v>
       </c>
       <c r="Q2">
-        <v>0.02455738997673895</v>
+        <v>0.03141575410255593</v>
       </c>
       <c r="R2">
-        <v>0.2740108625315865</v>
+        <v>0.4695006870349305</v>
       </c>
       <c r="S2">
-        <v>94055</v>
+        <v>51268</v>
       </c>
       <c r="T2">
-        <v>0.7548656853934433</v>
+        <v>0.6264782291972337</v>
       </c>
       <c r="U2">
-        <v>806048.1</v>
+        <v>1426193.6</v>
       </c>
       <c r="V2">
-        <v>0.6480773632769017</v>
+        <v>1.465782931188469</v>
       </c>
       <c r="W2">
-        <v>0.1155558891223857</v>
+        <v>0.08195637805684071</v>
       </c>
       <c r="X2">
-        <v>0.06603359169891999</v>
+        <v>0.05950464193154117</v>
       </c>
       <c r="Y2">
-        <v>0.04952229742346567</v>
+        <v>0.02245173612529953</v>
       </c>
       <c r="Z2">
-        <v>0.2042376285880969</v>
+        <v>0.1428352560035943</v>
       </c>
       <c r="AA2">
-        <v>4.988259608099727e-05</v>
+        <v>-0.0002628955024622765</v>
       </c>
       <c r="AB2">
-        <v>0.03953422053796957</v>
+        <v>0.03266817663139635</v>
       </c>
       <c r="AC2">
-        <v>-0.04006433869433249</v>
+        <v>-0.03293107213385862</v>
       </c>
       <c r="AD2">
-        <v>2176154.5</v>
+        <v>2073422.8</v>
       </c>
       <c r="AE2">
-        <v>34592.38157446097</v>
+        <v>30110.13185460101</v>
       </c>
       <c r="AF2">
-        <v>2210746.881574461</v>
+        <v>2103532.931854601</v>
       </c>
       <c r="AG2">
-        <v>1404698.781574461</v>
+        <v>677339.3318546009</v>
       </c>
       <c r="AH2">
-        <v>0.6399615056761898</v>
+        <v>0.6837368986713982</v>
       </c>
       <c r="AI2">
-        <v>0.6931609986757027</v>
+        <v>0.6844111156819732</v>
       </c>
       <c r="AJ2">
-        <v>0.5303849004862308</v>
+        <v>0.4104265181222377</v>
       </c>
       <c r="AK2">
-        <v>0.5893869361223227</v>
+        <v>0.4111816203661887</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>342.4771330907626</v>
+        <v>365.2256962181395</v>
       </c>
       <c r="AP2">
-        <v>221.0675811711478</v>
+        <v>119.3107980931463</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BankGuam Holding Company (OTCPK:BKGM.F)</t>
+          <t>CIB Marine Bancshares, Inc. (OTCPK:CIBH)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,104 +721,74 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0701</v>
-      </c>
-      <c r="E3">
-        <v>0.09619999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>-0.02618055574927956</v>
-      </c>
-      <c r="J3">
-        <v>-0.02097369661702061</v>
-      </c>
       <c r="K3">
-        <v>14.3</v>
-      </c>
-      <c r="L3">
-        <v>0.1500524658971669</v>
+        <v>5.46</v>
       </c>
       <c r="M3">
-        <v>3.86</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.03580705009276438</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.2699300699300699</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>3.86</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.03580705009276438</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.2699300699300699</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>189.4</v>
+        <v>38.8</v>
       </c>
       <c r="V3">
-        <v>1.7569573283859</v>
-      </c>
-      <c r="W3">
-        <v>0.1049156272927366</v>
+        <v>1.865384615384615</v>
       </c>
       <c r="X3">
-        <v>0.05021465836068709</v>
-      </c>
-      <c r="Y3">
-        <v>0.05470096893204952</v>
+        <v>0.03427301728606291</v>
       </c>
       <c r="Z3">
-        <v>-2.961654021648264</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.06211683293462969</v>
+        <v>0.01929305505742534</v>
       </c>
       <c r="AB3">
-        <v>0.03880912107362568</v>
+        <v>0.0317496278158614</v>
       </c>
       <c r="AC3">
-        <v>0.02330771186100401</v>
+        <v>-0.01245657275843606</v>
       </c>
       <c r="AD3">
-        <v>45.3</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>24.32503481453171</v>
+        <v>2.95971594335854</v>
       </c>
       <c r="AF3">
-        <v>69.62503481453172</v>
+        <v>2.95971594335854</v>
       </c>
       <c r="AG3">
-        <v>-119.7749651854683</v>
+        <v>-35.84028405664146</v>
       </c>
       <c r="AH3">
-        <v>0.3924194513322941</v>
+        <v>0.1245686585822108</v>
       </c>
       <c r="AI3">
-        <v>0.3017662772074118</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>10.00211385422783</v>
+        <v>2.382952603931385</v>
       </c>
       <c r="AK3">
-        <v>-2.89836332196749</v>
+        <v>1</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>19.11392405063291</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-50.53795999386848</v>
+        <v>-53.49296127856934</v>
       </c>
     </row>
     <row r="4">
@@ -850,13 +820,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0356</v>
+        <v>0.00739</v>
       </c>
       <c r="E4">
-        <v>0.0459</v>
+        <v>-0.0352</v>
       </c>
       <c r="F4">
-        <v>0.0638</v>
+        <v>0.0265</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,91 +835,91 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001768885657227724</v>
+        <v>0.001014659947086085</v>
       </c>
       <c r="J4">
-        <v>0.0001453865009283236</v>
+        <v>0.0008406842954027066</v>
       </c>
       <c r="K4">
-        <v>7284</v>
+        <v>4926</v>
       </c>
       <c r="L4">
-        <v>0.3417632430910712</v>
+        <v>0.2570042260134606</v>
       </c>
       <c r="M4">
-        <v>5433</v>
+        <v>6533</v>
       </c>
       <c r="N4">
-        <v>0.05878903037595547</v>
+        <v>0.0930825675001781</v>
       </c>
       <c r="O4">
-        <v>0.7458813838550247</v>
+        <v>1.326228177019894</v>
       </c>
       <c r="P4">
-        <v>2383</v>
+        <v>2580</v>
       </c>
       <c r="Q4">
-        <v>0.02578580146988807</v>
+        <v>0.03675999145116478</v>
       </c>
       <c r="R4">
-        <v>0.3271554091158704</v>
+        <v>0.5237515225334958</v>
       </c>
       <c r="S4">
-        <v>3050</v>
+        <v>3953</v>
       </c>
       <c r="T4">
-        <v>0.5613841339959507</v>
+        <v>0.6050818919332619</v>
       </c>
       <c r="U4">
-        <v>15272</v>
+        <v>44047</v>
       </c>
       <c r="V4">
-        <v>0.1652542006076922</v>
+        <v>0.6275842416470756</v>
       </c>
       <c r="W4">
-        <v>0.164087314996283</v>
+        <v>0.1036332653104159</v>
       </c>
       <c r="X4">
-        <v>0.0502178345146833</v>
+        <v>0.04572453582411373</v>
       </c>
       <c r="Y4">
-        <v>0.1138694804815997</v>
+        <v>0.05790872948630219</v>
       </c>
       <c r="Z4">
-        <v>0.2421102319089067</v>
+        <v>0.2205061135414246</v>
       </c>
       <c r="AA4">
-        <v>3.519955945618091e-05</v>
+        <v>0.0001853760266945618</v>
       </c>
       <c r="AB4">
-        <v>0.03902965420181648</v>
+        <v>0.0315497309580089</v>
       </c>
       <c r="AC4">
-        <v>-0.0389944546423603</v>
+        <v>-0.03136435493131434</v>
       </c>
       <c r="AD4">
-        <v>58271</v>
+        <v>57271</v>
       </c>
       <c r="AE4">
-        <v>1436.149869993753</v>
+        <v>1382.760063971005</v>
       </c>
       <c r="AF4">
-        <v>59707.14986999375</v>
+        <v>58653.76006397101</v>
       </c>
       <c r="AG4">
-        <v>44435.14986999375</v>
+        <v>14606.76006397101</v>
       </c>
       <c r="AH4">
-        <v>0.3924942647876559</v>
+        <v>0.4552493367279244</v>
       </c>
       <c r="AI4">
-        <v>0.5244178621347694</v>
+        <v>0.524402416534832</v>
       </c>
       <c r="AJ4">
-        <v>0.3246988400994709</v>
+        <v>0.1722662680070677</v>
       </c>
       <c r="AK4">
-        <v>0.4507423496910249</v>
+        <v>0.2154333464233011</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -958,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>200.2439862542955</v>
+        <v>193.4831081081081</v>
       </c>
       <c r="AP4">
-        <v>152.6981095188789</v>
+        <v>49.34716237828043</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +942,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wells Fargo &amp; Company (NYSE:WFC)</t>
+          <t>JPMorgan Chase &amp; Co. (NYSE:JPM)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,13 +951,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.00327</v>
+        <v>0.0173</v>
       </c>
       <c r="E5">
-        <v>-0.00191</v>
+        <v>0.0128</v>
       </c>
       <c r="F5">
-        <v>0.122</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -996,91 +966,91 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00119609160367717</v>
+        <v>-0.002277680581002257</v>
       </c>
       <c r="J5">
-        <v>0.001004266406017154</v>
+        <v>-0.001880319022366214</v>
       </c>
       <c r="K5">
-        <v>22740</v>
+        <v>25515</v>
       </c>
       <c r="L5">
-        <v>0.2718437316947795</v>
+        <v>0.2602641913602285</v>
       </c>
       <c r="M5">
-        <v>32837</v>
+        <v>24241.52</v>
       </c>
       <c r="N5">
-        <v>0.144851841934734</v>
+        <v>0.06258537824602567</v>
       </c>
       <c r="O5">
-        <v>1.444019349164468</v>
+        <v>0.9500889672741525</v>
       </c>
       <c r="P5">
-        <v>8080</v>
+        <v>10973.52</v>
       </c>
       <c r="Q5">
-        <v>0.03564280789452905</v>
+        <v>0.0283308101096931</v>
       </c>
       <c r="R5">
-        <v>0.355321020228672</v>
+        <v>0.4300811287477954</v>
       </c>
       <c r="S5">
-        <v>24757</v>
+        <v>13268</v>
       </c>
       <c r="T5">
-        <v>0.7539361086579164</v>
+        <v>0.5473254152379884</v>
       </c>
       <c r="U5">
-        <v>251782</v>
+        <v>462822</v>
       </c>
       <c r="V5">
-        <v>1.110670477388653</v>
+        <v>1.194887528941341</v>
       </c>
       <c r="W5">
-        <v>0.1284462745496755</v>
+        <v>0.108121278894845</v>
       </c>
       <c r="X5">
-        <v>0.06603359169891999</v>
+        <v>0.05950464193154117</v>
       </c>
       <c r="Y5">
-        <v>0.0624126828507555</v>
+        <v>0.04861663696330383</v>
       </c>
       <c r="Z5">
-        <v>0.3097591724397922</v>
+        <v>0.1445949365347432</v>
       </c>
       <c r="AA5">
-        <v>0.0003110807308369579</v>
+        <v>-0.0002718846097041131</v>
       </c>
       <c r="AB5">
-        <v>0.03953422053796957</v>
+        <v>0.0326199398446518</v>
       </c>
       <c r="AC5">
-        <v>-0.03922313980713261</v>
+        <v>-0.03289182445435591</v>
       </c>
       <c r="AD5">
-        <v>369890</v>
+        <v>637756</v>
       </c>
       <c r="AE5">
-        <v>5369.728706304005</v>
+        <v>9136.462078792782</v>
       </c>
       <c r="AF5">
-        <v>375259.728706304</v>
+        <v>646892.4620787927</v>
       </c>
       <c r="AG5">
-        <v>123477.728706304</v>
+        <v>184070.4620787927</v>
       </c>
       <c r="AH5">
-        <v>0.6234032581437376</v>
+        <v>0.6254836200943823</v>
       </c>
       <c r="AI5">
-        <v>0.6587251480039251</v>
+        <v>0.7046716918371339</v>
       </c>
       <c r="AJ5">
-        <v>0.3526207982258521</v>
+        <v>0.322136223517874</v>
       </c>
       <c r="AK5">
-        <v>0.38842455058427</v>
+        <v>0.4043874117002299</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1089,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>315.0681431005111</v>
+        <v>397.6034912718205</v>
       </c>
       <c r="AP5">
-        <v>105.1769409764088</v>
+        <v>114.7571459344094</v>
       </c>
     </row>
     <row r="6">
@@ -1112,13 +1082,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.00365</v>
+        <v>-0.0142</v>
       </c>
       <c r="E6">
-        <v>0.396</v>
+        <v>0.0358</v>
       </c>
       <c r="F6">
-        <v>0.09</v>
+        <v>0.0585</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1127,91 +1097,91 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.004067731159652737</v>
+        <v>-0.002303742459867095</v>
       </c>
       <c r="J6">
-        <v>-0.003387107573194002</v>
+        <v>-0.00212563892067946</v>
       </c>
       <c r="K6">
-        <v>27714</v>
+        <v>19418</v>
       </c>
       <c r="L6">
-        <v>0.3216088566024161</v>
+        <v>0.2569538176525076</v>
       </c>
       <c r="M6">
-        <v>31293.913</v>
+        <v>20738.576</v>
       </c>
       <c r="N6">
-        <v>0.09897561816445168</v>
+        <v>0.07909286383880729</v>
       </c>
       <c r="O6">
-        <v>1.129173450241755</v>
+        <v>1.06800782778865</v>
       </c>
       <c r="P6">
-        <v>5666.913</v>
+        <v>6228.575999999999</v>
       </c>
       <c r="Q6">
-        <v>0.01792317302279096</v>
+        <v>0.02375456798372573</v>
       </c>
       <c r="R6">
-        <v>0.2044783502922711</v>
+        <v>0.3207630033989082</v>
       </c>
       <c r="S6">
-        <v>25627</v>
+        <v>14510</v>
       </c>
       <c r="T6">
-        <v>0.8189132499984901</v>
+        <v>0.6996623104691471</v>
       </c>
       <c r="U6">
-        <v>136694</v>
+        <v>294506</v>
       </c>
       <c r="V6">
-        <v>0.4323324203455016</v>
+        <v>1.123188157070754</v>
       </c>
       <c r="W6">
-        <v>0.1155558891223857</v>
+        <v>0.07932805242236939</v>
       </c>
       <c r="X6">
-        <v>0.06792050529116266</v>
+        <v>0.06526856186658579</v>
       </c>
       <c r="Y6">
-        <v>0.04763538383122301</v>
+        <v>0.01405949055578359</v>
       </c>
       <c r="Z6">
-        <v>0.1608390461274097</v>
+        <v>0.1236783443813882</v>
       </c>
       <c r="AA6">
-        <v>-0.0005447791512034485</v>
+        <v>-0.0002628955024622765</v>
       </c>
       <c r="AB6">
-        <v>0.03951955954312904</v>
+        <v>0.03266817663139635</v>
       </c>
       <c r="AC6">
-        <v>-0.04006433869433249</v>
+        <v>-0.03293107213385862</v>
       </c>
       <c r="AD6">
-        <v>547708</v>
+        <v>518725</v>
       </c>
       <c r="AE6">
-        <v>13752.64298610378</v>
+        <v>10700.46908846078</v>
       </c>
       <c r="AF6">
-        <v>561460.6429861038</v>
+        <v>529425.4690884608</v>
       </c>
       <c r="AG6">
-        <v>424766.6429861038</v>
+        <v>234919.4690884608</v>
       </c>
       <c r="AH6">
-        <v>0.6397401111188238</v>
+        <v>0.6687782017622409</v>
       </c>
       <c r="AI6">
-        <v>0.6765828013510496</v>
+        <v>0.6632114972704899</v>
       </c>
       <c r="AJ6">
-        <v>0.5732771631551835</v>
+        <v>0.4725562604003584</v>
       </c>
       <c r="AK6">
-        <v>0.6128030160185127</v>
+        <v>0.4663233552313776</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1220,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>228.2116666666667</v>
+        <v>263.8479145473042</v>
       </c>
       <c r="AP6">
-        <v>176.9861012442099</v>
+        <v>119.4910829544561</v>
       </c>
     </row>
     <row r="7">
@@ -1234,7 +1204,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co. (NYSE:JPM)</t>
+          <t>Citigroup Inc. (NYSE:C)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1243,13 +1213,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0292</v>
+        <v>-0.034</v>
       </c>
       <c r="E7">
-        <v>0.09630000000000001</v>
+        <v>-0.033</v>
       </c>
       <c r="F7">
-        <v>0.0805</v>
+        <v>0.00258</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1258,91 +1228,91 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.003224974718983301</v>
+        <v>0.002006933933046818</v>
       </c>
       <c r="J7">
-        <v>-0.00263422014305782</v>
+        <v>0.001695450395028601</v>
       </c>
       <c r="K7">
-        <v>34977</v>
+        <v>12047</v>
       </c>
       <c r="L7">
-        <v>0.3252917926063706</v>
+        <v>0.2074065147028442</v>
       </c>
       <c r="M7">
-        <v>33526.8</v>
+        <v>12660.28</v>
       </c>
       <c r="N7">
-        <v>0.0771182575176776</v>
+        <v>0.09862058865685779</v>
       </c>
       <c r="O7">
-        <v>0.9585384681362039</v>
+        <v>1.050907279820702</v>
       </c>
       <c r="P7">
-        <v>10348.8</v>
+        <v>4247.28</v>
       </c>
       <c r="Q7">
-        <v>0.02380428264549381</v>
+        <v>0.03308530725943652</v>
       </c>
       <c r="R7">
-        <v>0.2958744317694485</v>
+        <v>0.3525591433551921</v>
       </c>
       <c r="S7">
-        <v>23178</v>
+        <v>8413</v>
       </c>
       <c r="T7">
-        <v>0.6913275349869359</v>
+        <v>0.6645192681362498</v>
       </c>
       <c r="U7">
-        <v>209505</v>
+        <v>308407</v>
       </c>
       <c r="V7">
-        <v>0.4819028520837373</v>
+        <v>2.402417631039404</v>
       </c>
       <c r="W7">
-        <v>0.151289837018582</v>
+        <v>0.0681033166942728</v>
       </c>
       <c r="X7">
-        <v>0.06459684206570171</v>
+        <v>0.1063291949288537</v>
       </c>
       <c r="Y7">
-        <v>0.08669299495288024</v>
+        <v>-0.03822587823458092</v>
       </c>
       <c r="Z7">
-        <v>0.2790213129407123</v>
+        <v>0.1134417350423969</v>
       </c>
       <c r="AA7">
-        <v>-0.0007350035628908639</v>
+        <v>0.0001923348344903617</v>
       </c>
       <c r="AB7">
-        <v>0.03954630740795006</v>
+        <v>0.03383046987049848</v>
       </c>
       <c r="AC7">
-        <v>-0.04028131097084092</v>
+        <v>-0.03363813503600812</v>
       </c>
       <c r="AD7">
-        <v>670261</v>
+        <v>574954</v>
       </c>
       <c r="AE7">
-        <v>9538.827033293397</v>
+        <v>3422.146247164543</v>
       </c>
       <c r="AF7">
-        <v>679799.8270332934</v>
+        <v>578376.1462471646</v>
       </c>
       <c r="AG7">
-        <v>470294.8270332934</v>
+        <v>269969.1462471646</v>
       </c>
       <c r="AH7">
-        <v>0.6099347711857939</v>
+        <v>0.8183605997997696</v>
       </c>
       <c r="AI7">
-        <v>0.7200141837633247</v>
+        <v>0.7482506288303594</v>
       </c>
       <c r="AJ7">
-        <v>0.5196397518581989</v>
+        <v>0.6777307953780425</v>
       </c>
       <c r="AK7">
-        <v>0.6401679969196514</v>
+        <v>0.5811235077610389</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1351,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>429.3792440743113</v>
+        <v>717.7952559300874</v>
       </c>
       <c r="AP7">
-        <v>301.2779161007645</v>
+        <v>337.0401326431518</v>
       </c>
     </row>
     <row r="8">
@@ -1365,7 +1335,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Citigroup Inc. (NYSE:C)</t>
+          <t>Wells Fargo &amp; Company (NYSE:WFC)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1374,13 +1344,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0151</v>
+        <v>-0.0665</v>
       </c>
       <c r="E8">
-        <v>0.147</v>
+        <v>-0.327</v>
       </c>
       <c r="F8">
-        <v>0.129</v>
+        <v>0.122</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1389,91 +1359,91 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0004818640337638363</v>
+        <v>-0.001312419430877887</v>
       </c>
       <c r="J8">
-        <v>0.0003849377137623295</v>
+        <v>-0.001312419430877887</v>
       </c>
       <c r="K8">
-        <v>18735</v>
+        <v>3182</v>
       </c>
       <c r="L8">
-        <v>0.287845499101203</v>
+        <v>0.05353117324450725</v>
       </c>
       <c r="M8">
-        <v>21503.752</v>
+        <v>17658</v>
       </c>
       <c r="N8">
-        <v>0.1238796721851672</v>
+        <v>0.1415143105124344</v>
       </c>
       <c r="O8">
-        <v>1.147785001334401</v>
+        <v>5.549340037712131</v>
       </c>
       <c r="P8">
-        <v>4060.752</v>
+        <v>6534</v>
       </c>
       <c r="Q8">
-        <v>0.02339334208212884</v>
+        <v>0.05236462254435646</v>
       </c>
       <c r="R8">
-        <v>0.216746837469976</v>
+        <v>2.053425518541798</v>
       </c>
       <c r="S8">
-        <v>17443</v>
+        <v>11124</v>
       </c>
       <c r="T8">
-        <v>0.8111607685951735</v>
+        <v>0.6299694189602446</v>
       </c>
       <c r="U8">
-        <v>192592</v>
+        <v>316074</v>
       </c>
       <c r="V8">
-        <v>1.109491675010283</v>
+        <v>2.533072498635587</v>
       </c>
       <c r="W8">
-        <v>0.1052711427271042</v>
+        <v>0.01840391444666798</v>
       </c>
       <c r="X8">
-        <v>0.0883340415374702</v>
+        <v>0.07032150819405464</v>
       </c>
       <c r="Y8">
-        <v>0.01693710118963396</v>
+        <v>-0.05191759374738666</v>
       </c>
       <c r="Z8">
-        <v>0.1295861493888232</v>
+        <v>0.2085237426976824</v>
       </c>
       <c r="AA8">
-        <v>4.988259608099727e-05</v>
+        <v>-0.0002736706117158193</v>
       </c>
       <c r="AB8">
-        <v>0.04039679181803098</v>
+        <v>0.03355286426680761</v>
       </c>
       <c r="AC8">
-        <v>-0.04034690922194999</v>
+        <v>-0.03382653487852343</v>
       </c>
       <c r="AD8">
-        <v>529910</v>
+        <v>284702</v>
       </c>
       <c r="AE8">
-        <v>4468.184578172066</v>
+        <v>5420.064179051216</v>
       </c>
       <c r="AF8">
-        <v>534378.184578172</v>
+        <v>290122.0641790512</v>
       </c>
       <c r="AG8">
-        <v>341786.184578172</v>
+        <v>-25951.9358209488</v>
       </c>
       <c r="AH8">
-        <v>0.7548098437473086</v>
+        <v>0.6992561821424174</v>
       </c>
       <c r="AI8">
-        <v>0.7305755839511028</v>
+        <v>0.6144648244921821</v>
       </c>
       <c r="AJ8">
-        <v>0.6631834768005898</v>
+        <v>-0.262599747311169</v>
       </c>
       <c r="AK8">
-        <v>0.6342808978720907</v>
+        <v>-0.166273226228158</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1482,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>572.8756756756757</v>
+        <v>283.0039761431411</v>
       </c>
       <c r="AP8">
-        <v>369.4985779223481</v>
+        <v>-25.79715290352763</v>
       </c>
     </row>
     <row r="9">
@@ -1496,7 +1466,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CIB Marine Bancshares, Inc. (OTCPK:CIBH)</t>
+          <t>BankGuam Holding Company (OTCPK:BKGM)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1504,6 +1474,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0.0434</v>
+      </c>
+      <c r="E9">
+        <v>0.0178</v>
+      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1511,88 +1487,91 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.009606964448169657</v>
+        <v>-0.06221345402063785</v>
       </c>
       <c r="J9">
-        <v>0.007052385265360907</v>
+        <v>-0.0445260243601193</v>
       </c>
       <c r="K9">
-        <v>3.27</v>
+        <v>12.4</v>
       </c>
       <c r="L9">
-        <v>0.1101010101010101</v>
+        <v>0.1371681415929203</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>3.87</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.04201954397394137</v>
       </c>
       <c r="O9">
-        <v>-0</v>
+        <v>0.3120967741935484</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>3.87</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.04201954397394137</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>0.3120967741935484</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>13.7</v>
+        <v>298.8</v>
       </c>
       <c r="V9">
-        <v>0.5055350553505534</v>
+        <v>3.244299674267101</v>
       </c>
       <c r="W9">
-        <v>0.03360739979445015</v>
+        <v>0.08195637805684071</v>
       </c>
       <c r="X9">
-        <v>0.08156686521464228</v>
+        <v>0.04269454088823711</v>
       </c>
       <c r="Y9">
-        <v>-0.04795946542019212</v>
+        <v>0.0392618371686036</v>
       </c>
       <c r="Z9">
-        <v>0.1784755314755742</v>
+        <v>2.928648416873467</v>
       </c>
       <c r="AA9">
-        <v>0.001258678208405796</v>
+        <v>-0.1304010707519328</v>
       </c>
       <c r="AB9">
-        <v>0.04305234838415009</v>
+        <v>0.03447997064520603</v>
       </c>
       <c r="AC9">
-        <v>-0.04179367017574429</v>
+        <v>-0.1648810413971389</v>
       </c>
       <c r="AD9">
-        <v>69.2</v>
+        <v>14.8</v>
       </c>
       <c r="AE9">
-        <v>2.523365779446806</v>
+        <v>45.2704812173283</v>
       </c>
       <c r="AF9">
-        <v>71.72336577944681</v>
+        <v>60.07048121732831</v>
       </c>
       <c r="AG9">
-        <v>58.02336577944681</v>
+        <v>-238.7295187826717</v>
       </c>
       <c r="AH9">
-        <v>0.7257733554584493</v>
+        <v>0.3947577791486134</v>
       </c>
       <c r="AI9">
-        <v>0.4327897001253279</v>
+        <v>0.2552167158202922</v>
       </c>
       <c r="AJ9">
-        <v>0.6816385283658116</v>
+        <v>1.62811363472117</v>
       </c>
       <c r="AK9">
-        <v>0.3816739978223231</v>
+        <v>3.763697460808897</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1601,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>87.59493670886076</v>
+        <v>4.314868804664723</v>
       </c>
       <c r="AP9">
-        <v>73.44729845499596</v>
+        <v>-69.60044279378184</v>
       </c>
     </row>
   </sheetData>
